--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B308142-D601-E145-BD6D-C30344E1E7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332DA12-135F-7748-BD63-23B400104CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Task</t>
   </si>
@@ -65,58 +65,157 @@
     <t>Docker</t>
   </si>
   <si>
-    <t>local data -&gt; ies cluster</t>
-  </si>
-  <si>
-    <t>research: consine similarity</t>
-  </si>
-  <si>
     <t>tutorial: https://radimrehurek.com/gensim/auto_examples/</t>
   </si>
   <si>
-    <t>print Problem: elastic search</t>
-  </si>
-  <si>
-    <t>read https://www.geeksforgeeks.org/finding-the-word-analogy-from-given-words-using-word2vec-embeddings/</t>
-  </si>
-  <si>
     <t>improved structure and consistency in elasticsearch file</t>
   </si>
   <si>
-    <t>read paper about soft cosine similarity</t>
-  </si>
-  <si>
-    <t>read 2 papers about Doc2Vec</t>
-  </si>
-  <si>
     <t>research: LDA</t>
   </si>
   <si>
     <t>research: BERTopic</t>
   </si>
   <si>
-    <t>sbatch: Wie trenne ich log/out file output von location der pdf die bei der Ausführung entstehen?</t>
-  </si>
-  <si>
     <t xml:space="preserve">research, argparse input file/dir </t>
   </si>
   <si>
-    <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remozte cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
-  </si>
-  <si>
-    <t>Matrix aus Bildern (vgl. CIFAR-10)</t>
-  </si>
-  <si>
-    <t>Database mit mehr PDFs füllen</t>
-  </si>
-  <si>
-    <t>mehr embeddings als Columns bei Database</t>
-  </si>
-  <si>
-    <t>pdf2image auf Cluster: poppler path not found even though it installed there (pip install poppler-utils)</t>
-  </si>
-  <si>
     <t>CNN Ähnlichkeiten auf images der PDFs erkennen lassen</t>
+  </si>
+  <si>
+    <t>Matrix aus Bildern (vgl. CIFAR-10), lokale Database mit mehr PDFs füllen</t>
+  </si>
+  <si>
+    <t>pdf2image auf Cluster, visualized 9 most similar images for sample query as matrix</t>
+  </si>
+  <si>
+    <t>tfidf: document term matrix, cosine similarity, tfidf vectorization of ocument corpus, google's universal-sentence-encoder</t>
+  </si>
+  <si>
+    <t>infer pretrained sentence encoder without db, bc embedding is too big for maximum dense vector size</t>
+  </si>
+  <si>
+    <t>huggingface: init, save, load sentence transformer, added as embedding to elasticSearch db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(slurm) sbatch skript für Visualisierung, Alias in ~/.zshrc für kopieren von remote cluster.ies zu local dir, dir: visualization &amp; error_logs im home, requirements.txt für simple venv Erstellung, argparse output dir </t>
+  </si>
+  <si>
+    <t>bis 22.08.2023</t>
+  </si>
+  <si>
+    <t>Urlaub</t>
+  </si>
+  <si>
+    <t>Usage Sentence embeddings rather than word embeddings? Ann. Beschreiben</t>
+  </si>
+  <si>
+    <t>Compare .png of documents using either 1. AE, 2. Eigenface/-phase (cf. PCA), 3. from paper</t>
+  </si>
+  <si>
+    <t>Add pipeline image for different models, which shows if stopwords were removed by me or model etc. to bachelor thesis</t>
+  </si>
+  <si>
+    <t>analysis/ evaluation ideas cf. Notability 23.08.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read Universal Encoder paper, log path != result path (sbatch skripts on cluster), </t>
+  </si>
+  <si>
+    <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words), BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
+  </si>
+  <si>
+    <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?)</t>
+  </si>
+  <si>
+    <t>InferSent hypothese: project does not support training: https://github.com/facebookresearch/InferSent/issues/82 , Universal Sentence Encoder: the embedding uses n-grams of documents close to current doc (like a window) to embed it, cf. DAN in https://amitness.com/2020/06/universal-sentence-encoder/ -&gt; unable to fix subtraction problem, started working on eigenfaces</t>
+  </si>
+  <si>
+    <t>cluster PCA results of images</t>
+  </si>
+  <si>
+    <t>solved errors of PCA clustering, added PCA-Cluster to database, DB has to be deleted to update index (!!!), deleted one tfidf embedding since it is too big, other tfidf is null vector (Problem!), db is searchable for same cluster documents</t>
+  </si>
+  <si>
+    <t>AutoEncoder + Kmeans Clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243), SOLUTION: create multple features/ properties for large vector and search multiple times when querying OR use PCA/ AE to reduce dimensionality </t>
+  </si>
+  <si>
+    <t>TFIDF: automatic preprocessing? Ggf. stemming/ lemmatization (using NLTK) to reduce vocabulary</t>
+  </si>
+  <si>
+    <t>TFIDF: preprocessing: diskretisiere Zahlen: ersetze bis fünfstellig z.B. durch small_number etc.</t>
+  </si>
+  <si>
+    <t>TFIDF: add extra cell to embedding, acts as flag for null embeddings</t>
+  </si>
+  <si>
+    <t>InferSent: + encoder layer of AE to reduce dimensionality</t>
+  </si>
+  <si>
+    <t>Cluster: bewerten lassen</t>
+  </si>
+  <si>
+    <t>Cluster Algo: DBSCAN (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster Algo: HDBSCAN  (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster Algo: OPTICS (nicht parametrisch != Kmeans)</t>
+  </si>
+  <si>
+    <t>Cluster für Bilder und Text nutzbar</t>
+  </si>
+  <si>
+    <t>Universal Sentence Encoder: nicht auf GPU, finde Artikel mit gleichem Problem online</t>
+  </si>
+  <si>
+    <t>Universal Sentence Encoder: try huggingface version</t>
+  </si>
+  <si>
+    <t>Eigenfaces: find paper</t>
+  </si>
+  <si>
+    <t>Eigenfaces: hohe dim &lt;-&gt; sparse &lt;-&gt; Clustern schwer</t>
+  </si>
+  <si>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors</t>
+  </si>
+  <si>
+    <t>Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
+  </si>
+  <si>
+    <t>Eigenfaces: display Entwicklung von Rekonstruktionsfehler, way to find best # components</t>
+  </si>
+  <si>
+    <t>BA: Pipeline Bild s. Christians Zeichnung, 62GB Daten -&gt; offline verarbeiten -&gt; DB -&gt; auf kleinem System durchsuchbar</t>
+  </si>
+  <si>
+    <t>try Convolutional AE</t>
+  </si>
+  <si>
+    <t>try AE with higher dimensionality and use PCA to visualize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA: AE latent space normal verteilt???? </t>
+  </si>
+  <si>
+    <t>BA: Kmeans Hypothese ist, dass Daten normalverteilt. Deshalb Kmeans cluster eher rund -&gt; deshalb wäre anderer Algo, z.B. Var. Bayesian Mixture Model interessant</t>
+  </si>
+  <si>
+    <t>BA: OPTICS etc. in Absatz Funktion erklären + Referenz</t>
+  </si>
+  <si>
+    <t>Lizenzen: GPL kann man nicht so einfach nutzen</t>
+  </si>
+  <si>
+    <t>why are cluster sizes of PCA results imbalanced? Because they are too sparse</t>
+  </si>
+  <si>
+    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor</t>
   </si>
 </sst>
 </file>
@@ -149,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +267,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -269,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -313,6 +424,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -320,6 +440,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -641,10 +767,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +794,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+      <c r="A2" s="18">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -679,7 +805,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -688,24 +814,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>45145</v>
       </c>
@@ -713,19 +839,19 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>45146</v>
       </c>
@@ -733,18 +859,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>45147</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -752,45 +878,220 @@
         <v>45148</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>45149</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>45150</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45151</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>45152</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>45153</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D12" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D13" s="8" t="s">
+      <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>45161</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="D17" s="8" t="s">
-        <v>26</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45162</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>45163</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>45164</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>45167</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>45168</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>45168</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D24" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D26" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D27" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D28" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D29" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D30" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D31" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="D35" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A332DA12-135F-7748-BD63-23B400104CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24AA51-8809-EA4D-8165-1145A2809133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>Task</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Usage Sentence embeddings rather than word embeddings? Ann. Beschreiben</t>
   </si>
   <si>
-    <t>Compare .png of documents using either 1. AE, 2. Eigenface/-phase (cf. PCA), 3. from paper</t>
-  </si>
-  <si>
     <t>Add pipeline image for different models, which shows if stopwords were removed by me or model etc. to bachelor thesis</t>
   </si>
   <si>
@@ -143,15 +140,6 @@
     <t xml:space="preserve">PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243), SOLUTION: create multple features/ properties for large vector and search multiple times when querying OR use PCA/ AE to reduce dimensionality </t>
   </si>
   <si>
-    <t>TFIDF: automatic preprocessing? Ggf. stemming/ lemmatization (using NLTK) to reduce vocabulary</t>
-  </si>
-  <si>
-    <t>TFIDF: preprocessing: diskretisiere Zahlen: ersetze bis fünfstellig z.B. durch small_number etc.</t>
-  </si>
-  <si>
-    <t>TFIDF: add extra cell to embedding, acts as flag for null embeddings</t>
-  </si>
-  <si>
     <t>InferSent: + encoder layer of AE to reduce dimensionality</t>
   </si>
   <si>
@@ -215,7 +203,7 @@
     <t>why are cluster sizes of PCA results imbalanced? Because they are too sparse</t>
   </si>
   <si>
-    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor</t>
+    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor, added TFIDF all-zero-flag, restructured repo: run everything from main.py now</t>
   </si>
 </sst>
 </file>
@@ -380,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -442,10 +430,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -870,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -880,9 +865,6 @@
       <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -892,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -903,7 +885,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -914,7 +896,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -932,30 +914,21 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="13">
         <v>45161</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
@@ -963,10 +936,10 @@
         <v>45162</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -974,10 +947,10 @@
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -985,10 +958,10 @@
         <v>45164</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -996,10 +969,10 @@
         <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1007,91 +980,91 @@
         <v>45168</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>45168</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="22">
-        <v>45168</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D24" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D25" s="8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F24AA51-8809-EA4D-8165-1145A2809133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288B17-D8FD-BC40-9AC8-5E882B2CA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1520" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-36480" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Task</t>
   </si>
@@ -140,9 +140,6 @@
     <t xml:space="preserve">PROBLEM: Elasticsearch max. dimension of dense vector is 2048, vocab size of corpus is bigger (7243), SOLUTION: create multple features/ properties for large vector and search multiple times when querying OR use PCA/ AE to reduce dimensionality </t>
   </si>
   <si>
-    <t>InferSent: + encoder layer of AE to reduce dimensionality</t>
-  </si>
-  <si>
     <t>Cluster: bewerten lassen</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
     <t>BA: Pipeline Bild s. Christians Zeichnung, 62GB Daten -&gt; offline verarbeiten -&gt; DB -&gt; auf kleinem System durchsuchbar</t>
   </si>
   <si>
-    <t>try Convolutional AE</t>
-  </si>
-  <si>
     <t>try AE with higher dimensionality and use PCA to visualize</t>
   </si>
   <si>
@@ -203,7 +197,16 @@
     <t>why are cluster sizes of PCA results imbalanced? Because they are too sparse</t>
   </si>
   <si>
-    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor, added TFIDF all-zero-flag, restructured repo: run everything from main.py now</t>
+    <t>TFIDF: strip accents in db embedding, created preprocessing class which can be used instead of default preprocessor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> added TFIDF all-zero-flag, restructured repo: run everything from main.py now</t>
+  </si>
+  <si>
+    <t>try Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html</t>
+  </si>
+  <si>
+    <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible</t>
   </si>
 </sst>
 </file>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -421,6 +424,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -428,9 +437,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +785,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="A2" s="20">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -790,7 +796,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="19"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -799,7 +805,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -808,7 +814,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -896,7 +902,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -938,9 +944,6 @@
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -950,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -961,7 +964,7 @@
         <v>30</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -972,7 +975,7 @@
         <v>31</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -983,88 +986,100 @@
         <v>32</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>45169</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D24" s="8" t="s">
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>45170</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D25" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7288B17-D8FD-BC40-9AC8-5E882B2CA961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7406EDD-2B82-4F4C-80F0-B32493BCDF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36480" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Task</t>
   </si>
@@ -122,9 +122,6 @@
     <t>multiple tfidf vectors for different tasks (1. similarity between documents omitting words which occur only once in the corpus, 2. finding specific documents omitting words which occur in every document, etc.) -&gt; reduce vector size (=#unique words), BA: assumption is that there are similarities (content wise and in terms of visual appearance) between documents of same type (eg. Urkunde)</t>
   </si>
   <si>
-    <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?)</t>
-  </si>
-  <si>
     <t>InferSent hypothese: project does not support training: https://github.com/facebookresearch/InferSent/issues/82 , Universal Sentence Encoder: the embedding uses n-grams of documents close to current doc (like a window) to embed it, cf. DAN in https://amitness.com/2020/06/universal-sentence-encoder/ -&gt; unable to fix subtraction problem, started working on eigenfaces</t>
   </si>
   <si>
@@ -143,12 +140,6 @@
     <t>Cluster: bewerten lassen</t>
   </si>
   <si>
-    <t>Cluster Algo: DBSCAN (nicht parametrisch != Kmeans)</t>
-  </si>
-  <si>
-    <t>Cluster Algo: HDBSCAN  (nicht parametrisch != Kmeans)</t>
-  </si>
-  <si>
     <t>Cluster Algo: OPTICS (nicht parametrisch != Kmeans)</t>
   </si>
   <si>
@@ -206,7 +197,10 @@
     <t>try Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html</t>
   </si>
   <si>
-    <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible</t>
+    <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?), InferSent has same difference problem</t>
+  </si>
+  <si>
+    <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible, compared (interactively) Cluster Algos: DBSCAN (nicht parametrisch != Kmeans), HDBSCAN  (nicht parametrisch != Kmeans), KMeans</t>
   </si>
 </sst>
 </file>
@@ -371,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -425,9 +419,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -760,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,7 +776,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="19">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -796,7 +787,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -805,7 +796,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -814,7 +805,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -830,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -861,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -902,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -950,10 +941,7 @@
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -961,10 +949,7 @@
         <v>45164</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -972,10 +957,10 @@
         <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -983,10 +968,10 @@
         <v>45168</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -994,92 +979,92 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>45169</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>45170</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>45170</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="D25" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7406EDD-2B82-4F4C-80F0-B32493BCDF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E064D-ADE1-F14F-89A7-10BD03F20F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36480" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Task</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Cluster: bewerten lassen</t>
   </si>
   <si>
-    <t>Cluster Algo: OPTICS (nicht parametrisch != Kmeans)</t>
-  </si>
-  <si>
     <t>Cluster für Bilder und Text nutzbar</t>
   </si>
   <si>
@@ -200,7 +197,7 @@
     <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?), InferSent has same difference problem</t>
   </si>
   <si>
-    <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible, compared (interactively) Cluster Algos: DBSCAN (nicht parametrisch != Kmeans), HDBSCAN  (nicht parametrisch != Kmeans), KMeans</t>
+    <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible, compared (interactively) Cluster Algos: DBSCAN (nicht parametrisch != Kmeans), HDBSCAN  (nicht parametrisch != Kmeans),  OPTICS (nicht parametrisch != Kmeans), KMeans</t>
   </si>
 </sst>
 </file>
@@ -752,7 +749,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -852,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -893,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -959,9 +956,6 @@
       <c r="B21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
@@ -979,10 +973,10 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -990,81 +984,81 @@
         <v>45169</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D26" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D30" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396E064D-ADE1-F14F-89A7-10BD03F20F6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7495A0B3-1AA5-6949-AC29-800D05B76412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -425,6 +425,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -748,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,6 +1005,9 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
+        <v>45171</v>
+      </c>
       <c r="D26" s="8" t="s">
         <v>37</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7495A0B3-1AA5-6949-AC29-800D05B76412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EA255-7DBE-974A-A8E0-7FFB496CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -362,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -425,9 +425,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -751,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,9 +1001,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="22">
+    <row r="26" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>45171</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>37</v>
@@ -1015,11 +1015,6 @@
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D28" s="8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6EA255-7DBE-974A-A8E0-7FFB496CD12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD3660A-83C3-8547-BD1D-2680699EFE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -155,15 +155,6 @@
     <t>Eigenfaces: hohe dim &lt;-&gt; sparse &lt;-&gt; Clustern schwer</t>
   </si>
   <si>
-    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors</t>
-  </si>
-  <si>
-    <t>Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
-  </si>
-  <si>
-    <t>Eigenfaces: display Entwicklung von Rekonstruktionsfehler, way to find best # components</t>
-  </si>
-  <si>
     <t>BA: Pipeline Bild s. Christians Zeichnung, 62GB Daten -&gt; offline verarbeiten -&gt; DB -&gt; auf kleinem System durchsuchbar</t>
   </si>
   <si>
@@ -198,6 +189,9 @@
   </si>
   <si>
     <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible, compared (interactively) Cluster Algos: DBSCAN (nicht parametrisch != Kmeans), HDBSCAN  (nicht parametrisch != Kmeans),  OPTICS (nicht parametrisch != Kmeans), KMeans</t>
+  </si>
+  <si>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
   </si>
 </sst>
 </file>
@@ -749,7 +743,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -849,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -890,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -973,7 +967,7 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>34</v>
@@ -984,7 +978,7 @@
         <v>45169</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>35</v>
@@ -995,18 +989,18 @@
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45171</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>37</v>
@@ -1017,49 +1011,39 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D29" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D30" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D34" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD3660A-83C3-8547-BD1D-2680699EFE75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2C6B6-0FE4-894F-9820-725302E0C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>Task</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
+  </si>
+  <si>
+    <t>Why are residual graph so similar for both latent dimensions?</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1011,6 +1014,11 @@
         <v>38</v>
       </c>
     </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D29" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D31" s="8" t="s">
         <v>39</v>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2C6B6-0FE4-894F-9820-725302E0C887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774BE96-F2A9-0945-BAEF-0653B7365E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -158,9 +158,6 @@
     <t>BA: Pipeline Bild s. Christians Zeichnung, 62GB Daten -&gt; offline verarbeiten -&gt; DB -&gt; auf kleinem System durchsuchbar</t>
   </si>
   <si>
-    <t>try AE with higher dimensionality and use PCA to visualize</t>
-  </si>
-  <si>
     <t xml:space="preserve">BA: AE latent space normal verteilt???? </t>
   </si>
   <si>
@@ -191,10 +188,10 @@
     <t>InferSent: + encoder layer of AE to reduce dimensionality in db &amp; query (bad results) possible, compared (interactively) Cluster Algos: DBSCAN (nicht parametrisch != Kmeans), HDBSCAN  (nicht parametrisch != Kmeans),  OPTICS (nicht parametrisch != Kmeans), KMeans</t>
   </si>
   <si>
-    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA</t>
-  </si>
-  <si>
     <t>Why are residual graph so similar for both latent dimensions?</t>
+  </si>
+  <si>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize</t>
   </si>
 </sst>
 </file>
@@ -746,7 +743,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -846,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -887,7 +884,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -970,7 +967,7 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>34</v>
@@ -981,7 +978,7 @@
         <v>45169</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>35</v>
@@ -992,13 +989,13 @@
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45171</v>
       </c>
@@ -1016,7 +1013,7 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1026,32 +1023,27 @@
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D32" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D33" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D34" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2774BE96-F2A9-0945-BAEF-0653B7365E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F923EFB-580C-DE4B-B173-AE3FF979B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -179,9 +179,6 @@
     <t xml:space="preserve"> added TFIDF all-zero-flag, restructured repo: run everything from main.py now</t>
   </si>
   <si>
-    <t>try Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html</t>
-  </si>
-  <si>
     <t>Google's universal Sentence Encoder: Alter shapes to fix problem (HOW?), InferSent has same difference problem</t>
   </si>
   <si>
@@ -191,7 +188,10 @@
     <t>Why are residual graph so similar for both latent dimensions?</t>
   </si>
   <si>
-    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize</t>
+    <t xml:space="preserve">Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html </t>
+  </si>
+  <si>
+    <t>Conv. AE is bad</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -420,6 +420,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -831,7 +834,7 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -843,7 +846,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -853,6 +856,9 @@
       <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
@@ -862,7 +868,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -873,7 +879,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -884,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -894,6 +900,9 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
+      <c r="D14" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
@@ -902,6 +911,9 @@
       <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
@@ -910,6 +922,9 @@
       <c r="B16" s="17" t="s">
         <v>22</v>
       </c>
+      <c r="D16" s="22" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
@@ -918,6 +933,9 @@
       <c r="B17" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="D17" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -926,6 +944,9 @@
       <c r="B18" s="14" t="s">
         <v>27</v>
       </c>
+      <c r="D18" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
@@ -942,6 +963,9 @@
       <c r="B20" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
@@ -951,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>45168</v>
       </c>
@@ -959,7 +983,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -970,7 +994,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -980,70 +1004,39 @@
       <c r="B24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="25" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45171</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D31" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D32" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D33" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="4:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="D35" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D36" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D37" s="8" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F923EFB-580C-DE4B-B173-AE3FF979B051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74072A0A-A30E-524A-8417-1F3E53DCEE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -188,10 +188,10 @@
     <t>Why are residual graph so similar for both latent dimensions?</t>
   </si>
   <si>
-    <t xml:space="preserve">Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html </t>
-  </si>
-  <si>
     <t>Conv. AE is bad</t>
+  </si>
+  <si>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html, compared clustering algos on tfidf embedding, added comparison of exmaple images per cluster per algo</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1013,12 +1013,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="171" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45171</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>41</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74072A0A-A30E-524A-8417-1F3E53DCEE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE54FF7-9D61-BD45-9EF4-C8E457FF6475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Task</t>
   </si>
@@ -80,9 +80,6 @@
     <t xml:space="preserve">research, argparse input file/dir </t>
   </si>
   <si>
-    <t>CNN Ähnlichkeiten auf images der PDFs erkennen lassen</t>
-  </si>
-  <si>
     <t>Matrix aus Bildern (vgl. CIFAR-10), lokale Database mit mehr PDFs füllen</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>Universal Sentence Encoder: nicht auf GPU, finde Artikel mit gleichem Problem online</t>
   </si>
   <si>
-    <t>Universal Sentence Encoder: try huggingface version</t>
-  </si>
-  <si>
     <t>Eigenfaces: find paper</t>
   </si>
   <si>
@@ -191,7 +185,7 @@
     <t>Conv. AE is bad</t>
   </si>
   <si>
-    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html, compared clustering algos on tfidf embedding, added comparison of exmaple images per cluster per algo</t>
+    <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html, compared clustering algos on tfidf embedding, added comparison of exmaple images per cluster per algo, Universal Sentence Encoder: huggingface version also uses tensoflow (fork) cf. https://huggingface.co/Dimitre/universal-sentence-encoder &amp; https://huggingface.co/vprelovac/universal-sentence-encoder-4</t>
   </si>
 </sst>
 </file>
@@ -356,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -420,9 +414,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -824,7 +815,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -834,9 +825,6 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -846,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -854,10 +842,10 @@
         <v>45148</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -865,10 +853,10 @@
         <v>45149</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -876,10 +864,10 @@
         <v>45150</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -887,10 +875,10 @@
         <v>45151</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -898,10 +886,10 @@
         <v>45152</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -909,21 +897,18 @@
         <v>45153</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -931,10 +916,10 @@
         <v>45161</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
@@ -942,10 +927,10 @@
         <v>45162</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -953,7 +938,7 @@
         <v>45163</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -961,10 +946,10 @@
         <v>45164</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -972,7 +957,7 @@
         <v>45167</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -980,10 +965,10 @@
         <v>45168</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -991,10 +976,10 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1002,7 +987,7 @@
         <v>45169</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1010,33 +995,33 @@
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="171" thickBot="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>45171</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D27" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D28" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D29" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE54FF7-9D61-BD45-9EF4-C8E457FF6475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D0E9D-4B44-724D-A299-410893FFFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Eigenfaces: 3-4 components, visualize via 3d scatter plot (matplotlib)/ 4d via colors, Eigenfaces: display Entwicklung von Rekonstruktionsfehler: way to find best # components, added Cluster Algo: Variationale Baysian Mixture Model after PCA, try AE with higher dimensionality and use PCA to visualize, tried Convolutional AE: https://blog.keras.io/building-autoencoders-in-keras.html, compared clustering algos on tfidf embedding, added comparison of exmaple images per cluster per algo, Universal Sentence Encoder: huggingface version also uses tensoflow (fork) cf. https://huggingface.co/Dimitre/universal-sentence-encoder &amp; https://huggingface.co/vprelovac/universal-sentence-encoder-4</t>
+  </si>
+  <si>
+    <t>Annoy: similar documents to certain one local, little information online https://www.slideshare.net/erikbern/approximate-nearest-neighbor-methods-and-vector-models-nyc-ml-meetup and https://github.com/spotify/annoy ; FastSent: import fails</t>
   </si>
 </sst>
 </file>
@@ -736,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,7 +1012,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>45173</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="D27" s="8" t="s">
         <v>40</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9D0E9D-4B44-724D-A299-410893FFFFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34DDE5-CE29-8E4C-A6AA-D5D21BA36E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="39560" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Task</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Annoy: similar documents to certain one local, little information online https://www.slideshare.net/erikbern/approximate-nearest-neighbor-methods-and-vector-models-nyc-ml-meetup and https://github.com/spotify/annoy ; FastSent: import fails</t>
+  </si>
+  <si>
+    <t>used WordClouds, LDA and BERTopic on sample query results</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -408,6 +411,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -739,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B28" sqref="A28:B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -764,7 +770,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="20">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -775,7 +781,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -784,20 +790,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1023,7 +1029,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>45174</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="D28" s="8" t="s">
         <v>41</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE34DDE5-CE29-8E4C-A6AA-D5D21BA36E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A6514-3AAD-9E40-B136-59E1E296EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39560" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -191,7 +191,7 @@
     <t>Annoy: similar documents to certain one local, little information online https://www.slideshare.net/erikbern/approximate-nearest-neighbor-methods-and-vector-models-nyc-ml-meetup and https://github.com/spotify/annoy ; FastSent: import fails</t>
   </si>
   <si>
-    <t>used WordClouds, LDA and BERTopic on sample query results</t>
+    <t>used WordClouds, LDA and BERTopic on sample query results, UI version 1.0</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B28" sqref="A28:B28"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87A6514-3AAD-9E40-B136-59E1E296EA38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F37BB-EBCD-3544-B10E-6C4A8EBD55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39560" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
   <si>
     <t>Task</t>
   </si>
@@ -191,7 +191,49 @@
     <t>Annoy: similar documents to certain one local, little information online https://www.slideshare.net/erikbern/approximate-nearest-neighbor-methods-and-vector-models-nyc-ml-meetup and https://github.com/spotify/annoy ; FastSent: import fails</t>
   </si>
   <si>
-    <t>used WordClouds, LDA and BERTopic on sample query results, UI version 1.0</t>
+    <t>used WordClouds, LDA and BERTopic on sample query results, UI version 1.0, Betreuer Treffen Uni</t>
+  </si>
+  <si>
+    <t>cluster query results displayed in UI</t>
+  </si>
+  <si>
+    <t>TfidfPreprocessor: deleted unused Code (fit_transform und fit)</t>
+  </si>
+  <si>
+    <t>Cli: Subprocesss, which display flags per key program name</t>
+  </si>
+  <si>
+    <t>main.py: dict instead of if else</t>
+  </si>
+  <si>
+    <t>save models (pickle, .pkl file/ json file) to save time when querying</t>
+  </si>
+  <si>
+    <t>BA: Trade-off memory &amp; query time</t>
+  </si>
+  <si>
+    <t>find a way to save all precomputed similarity values space efficient -&gt; offline computation; Adjazenzmatrix? Value &amp; docs (d1,d2)=x12</t>
+  </si>
+  <si>
+    <t>PCA: 32 vector compressed space</t>
+  </si>
+  <si>
+    <t>Clustering after PCA: Cluster on PCA data, not original one!</t>
+  </si>
+  <si>
+    <t>BA: # Docs = 866.000</t>
+  </si>
+  <si>
+    <t>later/ all data: use subset of ca. 50.000 documents to train Eigenfaces</t>
+  </si>
+  <si>
+    <t>BA: Online/ Offline (memory) -&gt; Ausblick: PNGs mit AE/ CNN</t>
+  </si>
+  <si>
+    <t>BERTopic: omit stopwords</t>
+  </si>
+  <si>
+    <t>Topic Analysis: Offline -&gt; BERTopic to get topics, Online: Wordclouds on Cluster</t>
   </si>
 </sst>
 </file>
@@ -356,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -422,6 +464,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -743,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,8 +1086,80 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="23">
+        <v>45174</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="D29" s="8" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="23">
+        <v>45175</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D31" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D32" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D33" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D34" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D36" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D37" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D38" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D39" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D40" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D41" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78F37BB-EBCD-3544-B10E-6C4A8EBD55EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDB54C-A095-214B-9DFB-4E889052C74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39560" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>Task</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>Topic Analysis: Offline -&gt; BERTopic to get topics, Online: Wordclouds on Cluster</t>
+  </si>
+  <si>
+    <t>multiple query results displayable in UI</t>
+  </si>
+  <si>
+    <t>models saved to disk, db init from disk</t>
+  </si>
+  <si>
+    <t>DB: change Index to number</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -464,9 +473,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
@@ -1085,34 +1091,46 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+    <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
         <v>45174</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="14" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+    <row r="30" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
         <v>45175</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="14" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>45176</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="D31" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>45177</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="D32" s="8" t="s">
         <v>56</v>
       </c>
@@ -1160,6 +1178,11 @@
     <row r="41" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D41" s="8" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D42" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BDB54C-A095-214B-9DFB-4E889052C74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D60290-257B-244A-901A-D98AB783AC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>Task</t>
   </si>
@@ -243,6 +243,15 @@
   </si>
   <si>
     <t>DB: change Index to number</t>
+  </si>
+  <si>
+    <t>11-12.09.2023</t>
+  </si>
+  <si>
+    <t>Dienstreise</t>
+  </si>
+  <si>
+    <t>UI Version 2</t>
   </si>
 </sst>
 </file>
@@ -407,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -473,6 +482,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -796,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1032,7 +1047,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="23">
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1081,7 +1096,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
+      <c r="A28" s="23">
         <v>45174</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1092,7 +1107,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
+      <c r="A29" s="18">
         <v>45174</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1135,52 +1150,64 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>70</v>
+      </c>
       <c r="D33" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>45181</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="D34" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D35" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D36" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D37" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D38" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D39" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D40" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D41" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="8" t="s">
         <v>68</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D60290-257B-244A-901A-D98AB783AC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE38D8-CF5C-F445-A384-09C87D6489BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -252,6 +252,12 @@
   </si>
   <si>
     <t>UI Version 2</t>
+  </si>
+  <si>
+    <t>added Wordcloud for multiple documents to UI V2</t>
+  </si>
+  <si>
+    <t>added Wordcloud for one document to UI V2, VSCode on cluster</t>
   </si>
 </sst>
 </file>
@@ -416,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -488,6 +494,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -811,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1172,12 +1181,24 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="25">
+        <v>45182</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="D35" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="25">
+        <v>45183</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="D36" s="8" t="s">
         <v>59</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CE38D8-CF5C-F445-A384-09C87D6489BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B7B3C8-02BB-6647-8AB4-F83A5824DE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
   <si>
     <t>Task</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>added Wordcloud for one document to UI V2, VSCode on cluster</t>
+  </si>
+  <si>
+    <t>fuzzy full-text search</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -494,9 +497,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,29 +1181,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="25">
+    <row r="35" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
         <v>45182</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="14" t="s">
         <v>73</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="25">
+    <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
         <v>45183</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="14" t="s">
         <v>72</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13">
+        <v>45184</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="D37" s="8" t="s">
         <v>60</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B7B3C8-02BB-6647-8AB4-F83A5824DE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB68871D-2C0C-204A-83BC-635BC82FF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Task</t>
   </si>
@@ -242,9 +242,6 @@
     <t>models saved to disk, db init from disk</t>
   </si>
   <si>
-    <t>DB: change Index to number</t>
-  </si>
-  <si>
     <t>11-12.09.2023</t>
   </si>
   <si>
@@ -261,6 +258,24 @@
   </si>
   <si>
     <t>fuzzy full-text search</t>
+  </si>
+  <si>
+    <t>DB: change Index to number/ hash of path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reduce tfidf vocab </t>
+  </si>
+  <si>
+    <t>eigendocs code</t>
+  </si>
+  <si>
+    <t>eigendocs BA</t>
+  </si>
+  <si>
+    <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents</t>
+  </si>
+  <si>
+    <t>database on cluster</t>
   </si>
 </sst>
 </file>
@@ -425,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -484,6 +499,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -491,12 +509,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,7 +857,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -856,7 +868,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -865,7 +877,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -874,7 +886,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1056,7 +1068,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
+      <c r="A23" s="13">
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
@@ -1105,7 +1117,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="13">
         <v>45174</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -1160,11 +1172,11 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>58</v>
@@ -1175,7 +1187,7 @@
         <v>45181</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>57</v>
@@ -1186,7 +1198,7 @@
         <v>45182</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>61</v>
@@ -1197,7 +1209,7 @@
         <v>45183</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>59</v>
@@ -1208,7 +1220,7 @@
         <v>45184</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>60</v>
@@ -1236,7 +1248,32 @@
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D42" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D43" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D46" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D47" s="8" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB68871D-2C0C-204A-83BC-635BC82FF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1409693-55A8-4147-B6F7-B613F9FFA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Task</t>
   </si>
@@ -260,9 +260,6 @@
     <t>fuzzy full-text search</t>
   </si>
   <si>
-    <t>DB: change Index to number/ hash of path</t>
-  </si>
-  <si>
     <t xml:space="preserve">reduce tfidf vocab </t>
   </si>
   <si>
@@ -276,6 +273,12 @@
   </si>
   <si>
     <t>database on cluster</t>
+  </si>
+  <si>
+    <t>id are hashes of text</t>
+  </si>
+  <si>
+    <t>PCA: 32 dim, cluster with OPTICS</t>
   </si>
 </sst>
 </file>
@@ -833,7 +836,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,7 +1229,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13">
+        <v>45185</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D38" s="8" t="s">
         <v>62</v>
       </c>
@@ -1247,33 +1256,33 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D42" s="8" t="s">
-        <v>74</v>
+      <c r="D42" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D44" s="19" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D44" s="8" t="s">
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="19" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D45" s="8" t="s">
+    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D46" s="19" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D46" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1409693-55A8-4147-B6F7-B613F9FFA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0093E4F2-81D9-B04E-A127-8DBCDA1B5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -257,28 +257,28 @@
     <t>added Wordcloud for one document to UI V2, VSCode on cluster</t>
   </si>
   <si>
-    <t>fuzzy full-text search</t>
-  </si>
-  <si>
     <t xml:space="preserve">reduce tfidf vocab </t>
   </si>
   <si>
-    <t>eigendocs code</t>
-  </si>
-  <si>
-    <t>eigendocs BA</t>
-  </si>
-  <si>
-    <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents</t>
-  </si>
-  <si>
     <t>database on cluster</t>
   </si>
   <si>
     <t>id are hashes of text</t>
   </si>
   <si>
-    <t>PCA: 32 dim, cluster with OPTICS</t>
+    <t>BA: Clustering</t>
+  </si>
+  <si>
+    <t>fuzzy full-text search, DB: Elasticsearch</t>
+  </si>
+  <si>
+    <t>OPTICS: reachability plot + clustering</t>
+  </si>
+  <si>
+    <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA</t>
+  </si>
+  <si>
+    <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents -&gt; schwer</t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1223,7 @@
         <v>45184</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>60</v>
@@ -1234,55 +1234,58 @@
         <v>45185</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13">
+        <v>45186</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D39" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13">
+        <v>45187</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>78</v>
+      </c>
       <c r="D40" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13">
+        <v>45188</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="D41" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D42" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D44" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D45" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D46" s="19" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0093E4F2-81D9-B04E-A127-8DBCDA1B5B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC87B1-8E55-1447-9A21-62BCD7000F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>Task</t>
   </si>
@@ -143,9 +143,6 @@
     <t>Universal Sentence Encoder: nicht auf GPU, finde Artikel mit gleichem Problem online</t>
   </si>
   <si>
-    <t>Eigenfaces: find paper</t>
-  </si>
-  <si>
     <t>Eigenfaces: hohe dim &lt;-&gt; sparse &lt;-&gt; Clustern schwer</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>BA: Kmeans Hypothese ist, dass Daten normalverteilt. Deshalb Kmeans cluster eher rund -&gt; deshalb wäre anderer Algo, z.B. Var. Bayesian Mixture Model interessant</t>
   </si>
   <si>
-    <t>BA: OPTICS etc. in Absatz Funktion erklären + Referenz</t>
-  </si>
-  <si>
     <t>Lizenzen: GPL kann man nicht so einfach nutzen</t>
   </si>
   <si>
@@ -206,18 +200,9 @@
     <t>main.py: dict instead of if else</t>
   </si>
   <si>
-    <t>save models (pickle, .pkl file/ json file) to save time when querying</t>
-  </si>
-  <si>
-    <t>BA: Trade-off memory &amp; query time</t>
-  </si>
-  <si>
     <t>find a way to save all precomputed similarity values space efficient -&gt; offline computation; Adjazenzmatrix? Value &amp; docs (d1,d2)=x12</t>
   </si>
   <si>
-    <t>PCA: 32 vector compressed space</t>
-  </si>
-  <si>
     <t>Clustering after PCA: Cluster on PCA data, not original one!</t>
   </si>
   <si>
@@ -275,10 +260,10 @@
     <t>OPTICS: reachability plot + clustering</t>
   </si>
   <si>
-    <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA</t>
-  </si>
-  <si>
     <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents -&gt; schwer</t>
+  </si>
+  <si>
+    <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -512,6 +497,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -835,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,7 +921,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -966,7 +954,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1017,9 +1005,6 @@
       <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="18" spans="1:4" ht="137" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
@@ -1029,7 +1014,7 @@
         <v>26</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="154" thickBot="1" x14ac:dyDescent="0.25">
@@ -1048,7 +1033,7 @@
         <v>28</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
@@ -1067,7 +1052,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1075,10 +1060,10 @@
         <v>45168</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1086,7 +1071,7 @@
         <v>45169</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1094,7 +1079,7 @@
         <v>45170</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="273" thickBot="1" x14ac:dyDescent="0.25">
@@ -1102,10 +1087,10 @@
         <v>45171</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1113,10 +1098,7 @@
         <v>45173</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1124,21 +1106,21 @@
         <v>45174</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18">
+      <c r="A29" s="24">
         <v>45174</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1146,10 +1128,10 @@
         <v>45175</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1157,10 +1139,10 @@
         <v>45176</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1168,21 +1150,18 @@
         <v>45177</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1190,21 +1169,18 @@
         <v>45181</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
+      <c r="A35" s="18">
         <v>45182</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1212,10 +1188,7 @@
         <v>45183</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1223,10 +1196,10 @@
         <v>45184</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1234,10 +1207,10 @@
         <v>45185</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1245,10 +1218,10 @@
         <v>45186</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1256,10 +1229,10 @@
         <v>45187</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1267,25 +1240,25 @@
         <v>45188</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D46" s="19" t="s">
-        <v>80</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D45" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEC87B1-8E55-1447-9A21-62BCD7000F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F71FF4-C503-2549-8903-232B2DF19B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -242,9 +242,6 @@
     <t>added Wordcloud for one document to UI V2, VSCode on cluster</t>
   </si>
   <si>
-    <t xml:space="preserve">reduce tfidf vocab </t>
-  </si>
-  <si>
     <t>database on cluster</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs</t>
+  </si>
+  <si>
+    <t>reduce tfidf vocab : SVD/ https://stackoverflow.com/questions/61274499/reduce-dimension-of-word-vectors-from-tfidfvectorizer-countvectorizer</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1196,7 @@
         <v>45184</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>55</v>
@@ -1207,7 +1207,7 @@
         <v>45185</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>57</v>
@@ -1218,7 +1218,7 @@
         <v>45186</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>58</v>
@@ -1229,7 +1229,7 @@
         <v>45187</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>59</v>
@@ -1240,25 +1240,25 @@
         <v>45188</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D45" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F71FF4-C503-2549-8903-232B2DF19B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3841A1A-C975-F842-A720-E9658FB74256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -245,9 +245,6 @@
     <t>database on cluster</t>
   </si>
   <si>
-    <t>id are hashes of text</t>
-  </si>
-  <si>
     <t>BA: Clustering</t>
   </si>
   <si>
@@ -260,10 +257,13 @@
     <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents -&gt; schwer</t>
   </si>
   <si>
-    <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs</t>
-  </si>
-  <si>
     <t>reduce tfidf vocab : SVD/ https://stackoverflow.com/questions/61274499/reduce-dimension-of-word-vectors-from-tfidfvectorizer-countvectorizer</t>
+  </si>
+  <si>
+    <t>id are hashes of text, only add new docs</t>
+  </si>
+  <si>
+    <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs, pdf2png only new docs</t>
   </si>
 </sst>
 </file>
@@ -824,7 +824,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,7 +1196,7 @@
         <v>45184</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>55</v>
@@ -1207,7 +1207,7 @@
         <v>45185</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>57</v>
@@ -1218,7 +1218,7 @@
         <v>45186</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>58</v>
@@ -1229,18 +1229,18 @@
         <v>45187</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>45188</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>60</v>
@@ -1248,12 +1248,12 @@
     </row>
     <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="D43" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D45" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3841A1A-C975-F842-A720-E9658FB74256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B35F7-0182-4A45-A8CA-99532046A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>Task</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs, pdf2png only new docs</t>
+  </si>
+  <si>
+    <t>question: literature two diff versions: take both? Eigendocs</t>
   </si>
 </sst>
 </file>
@@ -823,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1247,6 +1250,9 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B43" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="D43" s="8" t="s">
         <v>73</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31B35F7-0182-4A45-A8CA-99532046A235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70662C4-FD6D-C049-89F1-39A929B02C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-140" yWindow="820" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t>Task</t>
   </si>
@@ -266,7 +266,37 @@
     <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs, pdf2png only new docs</t>
   </si>
   <si>
-    <t>question: literature two diff versions: take both? Eigendocs</t>
+    <t>hash: of bytes of file</t>
+  </si>
+  <si>
+    <t>BA: max_h, max_b eigendocs preprocessing Infos of relative dimension</t>
+  </si>
+  <si>
+    <t>Eigenfaces dim = Data type (image higher than doc)?</t>
+  </si>
+  <si>
+    <t>PCA: padded vectors -&gt; encodes sizes of originals</t>
+  </si>
+  <si>
+    <t>32x32 -&gt; PCA -&gt; OPTICS</t>
+  </si>
+  <si>
+    <t>BA: pro section: first problem, then how to solve it, then techniques used</t>
+  </si>
+  <si>
+    <t>Init_db: multiprocessng</t>
+  </si>
+  <si>
+    <t># PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total)</t>
+  </si>
+  <si>
+    <t>cluster: argmax(pca weights)</t>
+  </si>
+  <si>
+    <t>BA: related work section 3, 2=fundamentals/state of the art, etc. cf. 20.09.2023 Vortrag</t>
+  </si>
+  <si>
+    <t>BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
   </si>
 </sst>
 </file>
@@ -484,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -503,6 +530,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -824,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -851,7 +881,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="20">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -862,7 +892,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -871,20 +901,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1116,7 +1146,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="23">
         <v>45174</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1157,7 +1187,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -1168,15 +1198,15 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
+      <c r="A34" s="5">
         <v>45181</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18">
+      <c r="A35" s="23">
         <v>45182</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -1187,10 +1217,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
+      <c r="A36" s="15">
         <v>45183</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1249,22 +1279,79 @@
         <v>60</v>
       </c>
     </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="24">
+        <v>45189</v>
+      </c>
+    </row>
     <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="B43" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D47" s="8" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D48" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D49" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D52" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D53" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D55" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D56" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D57" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D58" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70662C4-FD6D-C049-89F1-39A929B02C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564788E-15F6-6547-80B6-D3E0999057A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="820" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>BA: pro section: first problem, then how to solve it, then techniques used</t>
   </si>
   <si>
-    <t>Init_db: multiprocessng</t>
-  </si>
-  <si>
     <t># PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total)</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
+  </si>
+  <si>
+    <t>Init_db: multiprocessing</t>
   </si>
 </sst>
 </file>
@@ -857,7 +857,7 @@
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="52" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D52" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="4:4" ht="17" x14ac:dyDescent="0.2">
@@ -1336,22 +1336,22 @@
     </row>
     <row r="55" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D55" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D56" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9564788E-15F6-6547-80B6-D3E0999057A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC716B-9FE0-3049-A3A5-0E709747F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="820" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>Task</t>
   </si>
@@ -266,9 +266,6 @@
     <t>OPTICS: on 32x32 and on PCA version (PCA/eigendoc is better), PCA on 2^2, 5^2, 14^2 -&gt; 2^2 is best, eigendocs code und BA: eigendocs, pdf2png only new docs</t>
   </si>
   <si>
-    <t>hash: of bytes of file</t>
-  </si>
-  <si>
     <t>BA: max_h, max_b eigendocs preprocessing Infos of relative dimension</t>
   </si>
   <si>
@@ -278,15 +275,9 @@
     <t>PCA: padded vectors -&gt; encodes sizes of originals</t>
   </si>
   <si>
-    <t>32x32 -&gt; PCA -&gt; OPTICS</t>
-  </si>
-  <si>
     <t>BA: pro section: first problem, then how to solve it, then techniques used</t>
   </si>
   <si>
-    <t># PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total)</t>
-  </si>
-  <si>
     <t>cluster: argmax(pca weights)</t>
   </si>
   <si>
@@ -296,7 +287,10 @@
     <t>BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
   </si>
   <si>
-    <t>Init_db: multiprocessing</t>
+    <t>work event</t>
+  </si>
+  <si>
+    <t>hash: of bytes of file, # PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total), 32x32 -&gt; PCA -&gt; OPTICS, Init_db: multiprocessing</t>
   </si>
 </sst>
 </file>
@@ -461,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -514,6 +508,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -529,10 +526,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -856,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +878,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="20">
+      <c r="A2" s="21">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -892,7 +889,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -901,20 +898,20 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1146,7 +1143,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23">
+      <c r="A29" s="25">
         <v>45174</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1187,7 +1184,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="20" t="s">
         <v>63</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -1206,7 +1203,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="25">
         <v>45182</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -1279,18 +1276,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="24">
+    <row r="42" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18">
         <v>45189</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B42" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13">
+        <v>45190</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="24">
+        <v>45191</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D45" s="18" t="s">
+      <c r="D45" s="19" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1299,59 +1313,34 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D48" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="49" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D49" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D50" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D51" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D52" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D53" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D55" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D56" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74FC716B-9FE0-3049-A3A5-0E709747F747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEF599-0119-B74B-8922-C2CFA3D341EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -278,9 +278,6 @@
     <t>BA: pro section: first problem, then how to solve it, then techniques used</t>
   </si>
   <si>
-    <t>cluster: argmax(pca weights)</t>
-  </si>
-  <si>
     <t>BA: related work section 3, 2=fundamentals/state of the art, etc. cf. 20.09.2023 Vortrag</t>
   </si>
   <si>
@@ -291,6 +288,12 @@
   </si>
   <si>
     <t>hash: of bytes of file, # PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total), 32x32 -&gt; PCA -&gt; OPTICS, Init_db: multiprocessing</t>
+  </si>
+  <si>
+    <t>cluster: argmax(pca weights), clustering on 13 instead of 2dims</t>
+  </si>
+  <si>
+    <t>change clusters in db to eigendocs + OPTICS</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -524,12 +527,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -853,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1140,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="25">
+      <c r="A29" s="13">
         <v>45174</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -1203,7 +1200,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
+      <c r="A35" s="13">
         <v>45182</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -1281,7 +1278,7 @@
         <v>45189</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1289,18 +1286,21 @@
         <v>45190</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="24">
+    <row r="44" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="13">
         <v>45191</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>80</v>
+      <c r="B44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
@@ -1335,12 +1335,12 @@
     </row>
     <row r="57" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="4:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DEF599-0119-B74B-8922-C2CFA3D341EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1187F-13B9-704F-A008-25EF6ABCAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
   <si>
     <t>Task</t>
   </si>
@@ -278,22 +278,22 @@
     <t>BA: pro section: first problem, then how to solve it, then techniques used</t>
   </si>
   <si>
-    <t>BA: related work section 3, 2=fundamentals/state of the art, etc. cf. 20.09.2023 Vortrag</t>
-  </si>
-  <si>
-    <t>BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
-  </si>
-  <si>
     <t>work event</t>
   </si>
   <si>
     <t>hash: of bytes of file, # PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total), 32x32 -&gt; PCA -&gt; OPTICS, Init_db: multiprocessing</t>
   </si>
   <si>
-    <t>cluster: argmax(pca weights), clustering on 13 instead of 2dims</t>
-  </si>
-  <si>
     <t>change clusters in db to eigendocs + OPTICS</t>
+  </si>
+  <si>
+    <t>cluster: argmax(pca weights), clustering on 13 instead of 2dims, BA: related work section 3, 2=fundamentals/state of the art, etc. cf. 20.09.2023 Vortrag, BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
+  </si>
+  <si>
+    <t>termfrequency</t>
+  </si>
+  <si>
+    <t>BA: soft cosine similarity</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -518,6 +518,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -848,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +878,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="21">
+      <c r="A2" s="22">
         <v>45144</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -886,7 +889,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
@@ -895,7 +898,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -904,7 +907,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>45189</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1286,29 +1289,49 @@
         <v>45190</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D43" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>45191</v>
       </c>
       <c r="B44" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13">
+        <v>45192</v>
+      </c>
+      <c r="B45" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D45" s="19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21">
+        <v>45193</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="13">
+        <v>45194</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="D47" s="8" t="s">
         <v>68</v>
       </c>
@@ -1331,16 +1354,6 @@
     <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="4:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D57" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="4:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="D58" s="8" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF1187F-13B9-704F-A008-25EF6ABCAD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A31F03-3920-174E-AA50-450887DE9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
   <si>
     <t>Task</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>BA: soft cosine similarity</t>
+  </si>
+  <si>
+    <t>insert only certain embeddings into db, BA: term frequency, (soft) cosine sim.</t>
   </si>
 </sst>
 </file>
@@ -854,7 +857,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1336,6 +1339,14 @@
         <v>68</v>
       </c>
     </row>
+    <row r="48" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="13">
+        <v>45195</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
     <row r="49" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D49" s="8" t="s">
         <v>76</v>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A31F03-3920-174E-AA50-450887DE9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B2C0B-9593-5C4B-A374-841ED0444DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Task</t>
   </si>
@@ -257,9 +257,6 @@
     <t>OPTICS: threshold hierarchical clustering, reduce threshold and observe new documents -&gt; schwer</t>
   </si>
   <si>
-    <t>reduce tfidf vocab : SVD/ https://stackoverflow.com/questions/61274499/reduce-dimension-of-word-vectors-from-tfidfvectorizer-countvectorizer</t>
-  </si>
-  <si>
     <t>id are hashes of text, only add new docs</t>
   </si>
   <si>
@@ -297,6 +294,30 @@
   </si>
   <si>
     <t>insert only certain embeddings into db, BA: term frequency, (soft) cosine sim.</t>
+  </si>
+  <si>
+    <t>AE: 0% reconstruction error</t>
+  </si>
+  <si>
+    <t>RSME usage for PCA reconstruction error</t>
+  </si>
+  <si>
+    <t>BA: high level eval of image clustering etc.</t>
+  </si>
+  <si>
+    <t>BA: qualitativ für 195 docs  eval (Vorstellung vs Realität, welche Merkmale fallen auf?)</t>
+  </si>
+  <si>
+    <t>besten Algo auf labeled doc clustering Datensatz finden</t>
+  </si>
+  <si>
+    <t>Eval: Metrik für Cluster finden</t>
+  </si>
+  <si>
+    <t>Eval: semantic vs layout basiert Verfahren (vgl)</t>
+  </si>
+  <si>
+    <t>reduce tfidf vocab : SVD/ https://stackoverflow.com/questions/61274499/reduce-dimension-of-word-vectors-from-tfidfvectorizer-countvectorizer , https://scikit-learn.org/stable/auto_examples/text/plot_document_clustering.html LSA !!!!</t>
   </si>
 </sst>
 </file>
@@ -854,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1240,7 +1261,7 @@
         <v>45185</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>57</v>
@@ -1273,7 +1294,7 @@
         <v>45188</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>60</v>
@@ -1284,18 +1305,18 @@
         <v>45189</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>45190</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1303,10 +1324,10 @@
         <v>45191</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
@@ -1314,7 +1335,7 @@
         <v>45192</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>72</v>
@@ -1325,7 +1346,7 @@
         <v>45193</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1344,27 +1365,63 @@
         <v>45195</v>
       </c>
       <c r="B48" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>45196</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D50" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D51" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D54" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D55" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D49" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D50" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D51" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D54" s="8" t="s">
-        <v>79</v>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D56" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D57" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D58" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D59" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D60" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097B2C0B-9593-5C4B-A374-841ED0444DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87B0DD-4C77-1049-96D7-FF9000A73442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>AE: 0% reconstruction error</t>
   </si>
   <si>
-    <t>RSME usage for PCA reconstruction error</t>
-  </si>
-  <si>
     <t>BA: high level eval of image clustering etc.</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>reduce tfidf vocab : SVD/ https://stackoverflow.com/questions/61274499/reduce-dimension-of-word-vectors-from-tfidfvectorizer-countvectorizer , https://scikit-learn.org/stable/auto_examples/text/plot_document_clustering.html LSA !!!!</t>
+  </si>
+  <si>
+    <t>RSME usage for PCA reconstruction error, time per embedding, fix AE dimension, argmax cluster on white canvas input, BA: tokenization etc.</t>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1316,7 @@
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1368,12 +1368,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>45196</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>75</v>
@@ -1401,27 +1401,27 @@
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D56" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D59" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE87B0DD-4C77-1049-96D7-FF9000A73442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17BC01-989F-EA4B-8B91-EF80F91D22B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>hash: of bytes of file, # PCA components from cumulative explained variance knee/ or reconstrcution error (4-20 total), 32x32 -&gt; PCA -&gt; OPTICS, Init_db: multiprocessing</t>
   </si>
   <si>
-    <t>change clusters in db to eigendocs + OPTICS</t>
-  </si>
-  <si>
     <t>cluster: argmax(pca weights), clustering on 13 instead of 2dims, BA: related work section 3, 2=fundamentals/state of the art, etc. cf. 20.09.2023 Vortrag, BA: SVD gibt Bausteine, mittelwert automatisch in Implementierung, aber wichtig in Text</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>RSME usage for PCA reconstruction error, time per embedding, fix AE dimension, argmax cluster on white canvas input, BA: tokenization etc.</t>
+  </si>
+  <si>
+    <t>BA: TFIDF, Doc2Vec</t>
   </si>
 </sst>
 </file>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,7 +1316,7 @@
         <v>79</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
@@ -1324,9 +1324,6 @@
         <v>45191</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1335,7 +1332,7 @@
         <v>45192</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="19" t="s">
         <v>72</v>
@@ -1346,7 +1343,7 @@
         <v>45193</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1362,7 @@
         <v>45195</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
@@ -1373,18 +1370,28 @@
         <v>45196</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13">
+        <v>45197</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="D50" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13">
+        <v>45198</v>
+      </c>
+      <c r="B51" s="14"/>
       <c r="D51" s="8" t="s">
         <v>77</v>
       </c>
@@ -1396,32 +1403,32 @@
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D55" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D56" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D57" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D58" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D59" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC17BC01-989F-EA4B-8B91-EF80F91D22B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51ADE38-1629-514B-8EBB-A876A112D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-34560" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Task</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>BA: TFIDF, Doc2Vec</t>
+  </si>
+  <si>
+    <t>restructured init_db (omitted some inefficiency), BA: tfidf implementation</t>
   </si>
 </sst>
 </file>
@@ -878,7 +881,7 @@
   <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,11 +1390,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>45198</v>
       </c>
-      <c r="B51" s="14"/>
+      <c r="B51" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="D51" s="8" t="s">
         <v>77</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51ADE38-1629-514B-8EBB-A876A112D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7216234-774C-4D49-99D5-47705C892279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34560" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>Task</t>
   </si>
@@ -320,7 +320,16 @@
     <t>BA: TFIDF, Doc2Vec</t>
   </si>
   <si>
-    <t>restructured init_db (omitted some inefficiency), BA: tfidf implementation</t>
+    <t>restructured init_db (omitted some inefficiency), BA: tfidf implementation, compare vocabularies of tfidf preprocessors</t>
+  </si>
+  <si>
+    <t>doc2vec: use default parameter or find best practise</t>
+  </si>
+  <si>
+    <t>infersent: both vocab and trained?</t>
+  </si>
+  <si>
+    <t>infersent: provide smaller word2vec vocab?</t>
   </si>
 </sst>
 </file>
@@ -878,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,6 +1376,9 @@
       <c r="B48" s="14" t="s">
         <v>84</v>
       </c>
+      <c r="D48" s="8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
@@ -1390,7 +1402,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>45198</v>
       </c>
@@ -1434,6 +1446,16 @@
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D62" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7216234-774C-4D49-99D5-47705C892279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE035E6-6942-934C-B590-5E81B8945AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
   <si>
     <t>Task</t>
   </si>
@@ -330,6 +330,12 @@
   </si>
   <si>
     <t>infersent: provide smaller word2vec vocab?</t>
+  </si>
+  <si>
+    <t>new times for embeddings</t>
+  </si>
+  <si>
+    <t>BA: doc2vec impl, doc2vec default model</t>
   </si>
 </sst>
 </file>
@@ -889,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1413,6 +1419,22 @@
         <v>77</v>
       </c>
     </row>
+    <row r="52" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="13">
+        <v>45199</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="13">
+        <v>45200</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
     <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D54" s="8" t="s">
         <v>78</v>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE035E6-6942-934C-B590-5E81B8945AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE29B5-59FE-E24D-870A-395ACE2AB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>Task</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>BA: doc2vec impl, doc2vec default model</t>
+  </si>
+  <si>
+    <t>BA: infersent, custom w2v for infersent</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
   <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1435,7 +1438,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="13">
+        <v>45201</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="D54" s="8" t="s">
         <v>78</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EE29B5-59FE-E24D-870A-395ACE2AB2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0AA9D-8240-0D4F-94BC-FCF6962F9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="38400" yWindow="560" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -326,12 +326,6 @@
     <t>doc2vec: use default parameter or find best practise</t>
   </si>
   <si>
-    <t>infersent: both vocab and trained?</t>
-  </si>
-  <si>
-    <t>infersent: provide smaller word2vec vocab?</t>
-  </si>
-  <si>
     <t>new times for embeddings</t>
   </si>
   <si>
@@ -339,6 +333,12 @@
   </si>
   <si>
     <t>BA: infersent, custom w2v for infersent</t>
+  </si>
+  <si>
+    <t>BA: SBERT (Hf)</t>
+  </si>
+  <si>
+    <t>BA: USE (google)</t>
   </si>
 </sst>
 </file>
@@ -896,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1427,7 +1427,7 @@
         <v>45199</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1435,7 @@
         <v>45200</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1443,18 +1443,30 @@
         <v>45201</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="13">
+        <v>45202</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="D55" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="13">
+        <v>45203</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>99</v>
+      </c>
       <c r="D56" s="8" t="s">
         <v>86</v>
       </c>
@@ -1477,16 +1489,6 @@
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D60" s="8" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D61" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D62" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB0AA9D-8240-0D4F-94BC-FCF6962F9343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E64438-FB8D-CF48-99AA-D009FC95DA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="560" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -339,6 +339,30 @@
   </si>
   <si>
     <t>BA: USE (google)</t>
+  </si>
+  <si>
+    <t>fix: tfidf on server</t>
+  </si>
+  <si>
+    <t>fix: connect to db on vscode</t>
+  </si>
+  <si>
+    <t>2971 docs inserted on server db, BA: topic modeling init</t>
+  </si>
+  <si>
+    <t>PCA &amp; cluster in DB</t>
+  </si>
+  <si>
+    <t>BA: PCA dim update</t>
+  </si>
+  <si>
+    <t>BERTopic</t>
+  </si>
+  <si>
+    <t>LDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -896,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1471,12 +1495,24 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="13">
+        <v>45204</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="D57" s="8" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="13">
+        <v>45205</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>104</v>
+      </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
       </c>
@@ -1487,8 +1523,36 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="B60" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="D60" s="8" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D61" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D62" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D64" s="8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D65" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D66" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E64438-FB8D-CF48-99AA-D009FC95DA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDF107-C433-934F-AEE3-7E9E815EA6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Task</t>
   </si>
@@ -350,9 +350,6 @@
     <t>2971 docs inserted on server db, BA: topic modeling init</t>
   </si>
   <si>
-    <t>PCA &amp; cluster in DB</t>
-  </si>
-  <si>
     <t>BA: PCA dim update</t>
   </si>
   <si>
@@ -363,6 +360,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>run times_per_emb on server</t>
+  </si>
+  <si>
+    <t>PCA &amp; cluster in DB, argmax PCA cluster</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,7 +1514,7 @@
         <v>45205</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
@@ -1524,7 +1527,7 @@
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>90</v>
@@ -1540,19 +1543,24 @@
         <v>102</v>
       </c>
     </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D63" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D64" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D65" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D66" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22EDF107-C433-934F-AEE3-7E9E815EA6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0EA68B-492F-704C-9054-1293BDF1F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Task</t>
   </si>
@@ -350,9 +350,6 @@
     <t>2971 docs inserted on server db, BA: topic modeling init</t>
   </si>
   <si>
-    <t>BA: PCA dim update</t>
-  </si>
-  <si>
     <t>BERTopic</t>
   </si>
   <si>
@@ -365,7 +362,7 @@
     <t>run times_per_emb on server</t>
   </si>
   <si>
-    <t>PCA &amp; cluster in DB, argmax PCA cluster</t>
+    <t>PCA &amp; cluster in DB, argmax PCA cluster, BA: PCA dim update, BA: bulk Elasticsearch</t>
   </si>
 </sst>
 </file>
@@ -530,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -603,6 +600,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,12 +1509,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>45205</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>109</v>
+      <c r="B58" s="25" t="s">
+        <v>108</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>90</v>
@@ -1545,22 +1545,17 @@
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D63" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D64" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D65" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D66" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0EA68B-492F-704C-9054-1293BDF1F3D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615968D9-C31F-D344-997C-024310218DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>Task</t>
   </si>
@@ -363,6 +363,15 @@
   </si>
   <si>
     <t>PCA &amp; cluster in DB, argmax PCA cluster, BA: PCA dim update, BA: bulk Elasticsearch</t>
+  </si>
+  <si>
+    <t>Topic2Vec</t>
+  </si>
+  <si>
+    <t>LDA visualization from paper</t>
+  </si>
+  <si>
+    <t>LDA2Vec: does not work (import problem)</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -600,9 +609,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1519,7 @@
       <c r="A58" s="13">
         <v>45205</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="14" t="s">
         <v>108</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -1556,6 +1562,21 @@
     <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D66" s="8" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D67" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D68" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D69" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615968D9-C31F-D344-997C-024310218DE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AAEA0D-7544-3E4C-BB82-31E4FE7C7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -356,22 +356,28 @@
     <t>LDA</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>run times_per_emb on server</t>
   </si>
   <si>
     <t>PCA &amp; cluster in DB, argmax PCA cluster, BA: PCA dim update, BA: bulk Elasticsearch</t>
   </si>
   <si>
-    <t>Topic2Vec</t>
-  </si>
-  <si>
     <t>LDA visualization from paper</t>
   </si>
   <si>
     <t>LDA2Vec: does not work (import problem)</t>
+  </si>
+  <si>
+    <t>read about Topic Modeling</t>
+  </si>
+  <si>
+    <t>Top2Vec code</t>
+  </si>
+  <si>
+    <t>FE: Topic2Vec</t>
+  </si>
+  <si>
+    <t>new environment with python 12 to fix LDA and BERTopic</t>
   </si>
 </sst>
 </file>
@@ -931,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1520,26 +1526,41 @@
         <v>45205</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>45206</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="D59" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
-        <v>106</v>
+    <row r="60" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="13">
+        <v>45207</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="13">
+        <v>45208</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>112</v>
+      </c>
       <c r="D61" s="8" t="s">
         <v>101</v>
       </c>
@@ -1551,7 +1572,7 @@
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D63" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
@@ -1566,17 +1587,17 @@
     </row>
     <row r="67" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D67" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D68" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D69" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74AAEA0D-7544-3E4C-BB82-31E4FE7C7462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F824E-6A37-4D4C-AAE4-C146AFCE27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
   <si>
     <t>Task</t>
   </si>
@@ -344,9 +344,6 @@
     <t>fix: tfidf on server</t>
   </si>
   <si>
-    <t>fix: connect to db on vscode</t>
-  </si>
-  <si>
     <t>2971 docs inserted on server db, BA: topic modeling init</t>
   </si>
   <si>
@@ -374,10 +371,10 @@
     <t>Top2Vec code</t>
   </si>
   <si>
-    <t>FE: Topic2Vec</t>
-  </si>
-  <si>
     <t>new environment with python 12 to fix LDA and BERTopic</t>
+  </si>
+  <si>
+    <t>FE: Topic2Vec, fix: connect to db on vscode</t>
   </si>
 </sst>
 </file>
@@ -938,7 +935,7 @@
   <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1512,7 @@
         <v>45204</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>87</v>
@@ -1526,7 +1523,7 @@
         <v>45205</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
@@ -1537,7 +1534,7 @@
         <v>45206</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>89</v>
@@ -1548,7 +1545,7 @@
         <v>45207</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>90</v>
@@ -1565,39 +1562,34 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D62" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D63" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D65" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D66" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D67" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D68" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D69" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6F824E-6A37-4D4C-AAE4-C146AFCE27A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D31CF-32AE-DF43-B582-B0E8CDAA7777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>Task</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>FE: Topic2Vec, fix: connect to db on vscode</t>
+  </si>
+  <si>
+    <t>tfidf, univ, pca/clusters on server</t>
   </si>
 </sst>
 </file>
@@ -932,10 +935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,6 +1595,11 @@
         <v>107</v>
       </c>
     </row>
+    <row r="70" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D70" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60D31CF-32AE-DF43-B582-B0E8CDAA7777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068D125-78A4-704A-8C2F-0356E02B4555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1240" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>Task</t>
   </si>
@@ -378,6 +378,9 @@
   </si>
   <si>
     <t>tfidf, univ, pca/clusters on server</t>
+  </si>
+  <si>
+    <t>fix TfidfProcessor Preprocessing (punctations into ' ')</t>
   </si>
 </sst>
 </file>
@@ -937,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1568,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="13">
+        <v>45179</v>
+      </c>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="13">
+        <v>45180</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>114</v>
+      </c>
       <c r="D63" s="8" t="s">
         <v>105</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6068D125-78A4-704A-8C2F-0356E02B4555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D78C1-B7B4-9A40-9165-DB9D6E8C7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
     <t>tfidf, univ, pca/clusters on server</t>
   </si>
   <si>
-    <t>fix TfidfProcessor Preprocessing (punctations into ' ')</t>
+    <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B62" s="14"/>
     </row>
-    <row r="63" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>45180</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2D78C1-B7B4-9A40-9165-DB9D6E8C7710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D29704-3A58-D544-BF27-5FA3F68A0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-36760" yWindow="1180" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -377,10 +377,10 @@
     <t>FE: Topic2Vec, fix: connect to db on vscode</t>
   </si>
   <si>
-    <t>tfidf, univ, pca/clusters on server</t>
-  </si>
-  <si>
-    <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally</t>
+    <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally, universal sentenc on server</t>
+  </si>
+  <si>
+    <t>tfidf, pca/clusters on server</t>
   </si>
 </sst>
 </file>
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1579,7 +1579,7 @@
         <v>45180</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>105</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="70" spans="4:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D70" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D29704-3A58-D544-BF27-5FA3F68A0574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F7EE6-DD3F-434A-9D6D-1FC8FB47CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36760" yWindow="1180" windowWidth="34560" windowHeight="19400" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>Task</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>tfidf, pca/clusters on server</t>
+  </si>
+  <si>
+    <t>topic modelling FE: search button to start search</t>
   </si>
 </sst>
 </file>
@@ -938,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1618,11 @@
         <v>114</v>
       </c>
     </row>
+    <row r="71" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D71" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5F7EE6-DD3F-434A-9D6D-1FC8FB47CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5D7AD-8282-1945-A189-42DCD7549355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>Task</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>topic modelling FE: search button to start search</t>
+  </si>
+  <si>
+    <t>BA: section &amp; subsection with capital letter</t>
   </si>
 </sst>
 </file>
@@ -941,10 +944,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1623,6 +1626,11 @@
         <v>115</v>
       </c>
     </row>
+    <row r="72" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D72" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:A5"/>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE5D7AD-8282-1945-A189-42DCD7549355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF986C1-0F4A-4F42-BBEF-90E0667BF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
   <si>
     <t>Task</t>
   </si>
@@ -387,6 +387,15 @@
   </si>
   <si>
     <t>BA: section &amp; subsection with capital letter</t>
+  </si>
+  <si>
+    <t>tfidf on cluster</t>
+  </si>
+  <si>
+    <t>read BA</t>
+  </si>
+  <si>
+    <t>PCA &amp; OPTICS &amp; argmax cluster in DB on server</t>
   </si>
 </sst>
 </file>
@@ -946,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1591,42 +1600,70 @@
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="13">
+        <v>45181</v>
+      </c>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="13">
+        <v>45182</v>
+      </c>
+      <c r="B65" s="14"/>
       <c r="D65" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="66" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="13">
+        <v>45183</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D66" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="13">
+        <v>45184</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>118</v>
+      </c>
       <c r="D67" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="68" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="13">
+        <v>45185</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>119</v>
+      </c>
       <c r="D68" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D69" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D70" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D71" s="8" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D72" s="8" t="s">
         <v>116</v>
       </c>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF986C1-0F4A-4F42-BBEF-90E0667BF61B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681250AA-A76C-D84C-9F92-A247FCACD9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t>Task</t>
   </si>
@@ -341,9 +341,6 @@
     <t>BA: USE (google)</t>
   </si>
   <si>
-    <t>fix: tfidf on server</t>
-  </si>
-  <si>
     <t>2971 docs inserted on server db, BA: topic modeling init</t>
   </si>
   <si>
@@ -390,6 +387,9 @@
   </si>
   <si>
     <t>tfidf on cluster</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>read BA</t>
@@ -955,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68:B68"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1533,7 +1533,7 @@
         <v>45204</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>87</v>
@@ -1544,7 +1544,7 @@
         <v>45205</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>88</v>
@@ -1555,7 +1555,7 @@
         <v>45206</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>89</v>
@@ -1566,10 +1566,7 @@
         <v>45207</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1577,10 +1574,10 @@
         <v>45208</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1594,25 +1591,29 @@
         <v>45180</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>45181</v>
       </c>
-      <c r="B64" s="14"/>
+      <c r="B64" s="14" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>45182</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="14" t="s">
+        <v>117</v>
+      </c>
       <c r="D65" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1620,10 +1621,10 @@
         <v>45183</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1635,7 @@
         <v>118</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1645,27 +1646,31 @@
         <v>119</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="13">
+        <v>45186</v>
+      </c>
+      <c r="B69" s="14"/>
       <c r="D69" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D70" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D71" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D72" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681250AA-A76C-D84C-9F92-A247FCACD9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AA140-857D-2347-9214-70E359894081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-36920" yWindow="-380" windowWidth="34560" windowHeight="20520" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
   <si>
     <t>Task</t>
   </si>
@@ -396,6 +396,39 @@
   </si>
   <si>
     <t>PCA &amp; OPTICS &amp; argmax cluster in DB on server</t>
+  </si>
+  <si>
+    <t>BA: shorter Listing &amp; Figure captions</t>
+  </si>
+  <si>
+    <t>PCA: reconstruction error only L knee</t>
+  </si>
+  <si>
+    <t>PCA: #comp &gt; 13, try on server with more data and higher maximum number</t>
+  </si>
+  <si>
+    <t>AE: let server try more possible architectures</t>
+  </si>
+  <si>
+    <t>Parallelize DB</t>
+  </si>
+  <si>
+    <t>run BE &amp; FE on server, make SSH Tunnel and use URL locally for UI and db from server</t>
+  </si>
+  <si>
+    <t>selection of documents: use random choice per directory path</t>
+  </si>
+  <si>
+    <t>BA: min. 50, max. 100 pages</t>
+  </si>
+  <si>
+    <t>BA: omit lists at the end</t>
+  </si>
+  <si>
+    <t>BA: SE template is ok</t>
+  </si>
+  <si>
+    <t>TFIDF: custom preprocessing \W for all white spaces</t>
   </si>
 </sst>
 </file>
@@ -560,7 +593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -632,6 +665,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -953,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1379,7 +1415,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18">
+      <c r="A42" s="25">
         <v>45189</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -1653,12 +1689,20 @@
       <c r="A69" s="13">
         <v>45186</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="14" t="s">
+        <v>120</v>
+      </c>
       <c r="D69" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>45187</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="D70" s="8" t="s">
         <v>113</v>
       </c>
@@ -1671,6 +1715,51 @@
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D72" s="8" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D73" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D74" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D75" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D77" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D78" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D79" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D80" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D81" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D82" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{251AA140-857D-2347-9214-70E359894081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0892689-4F58-BF46-A144-534E711D8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36920" yWindow="-380" windowWidth="34560" windowHeight="20520" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="-36920" yWindow="1240" windowWidth="34560" windowHeight="20520" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
   <si>
     <t>Task</t>
   </si>
@@ -383,9 +383,6 @@
     <t>topic modelling FE: search button to start search</t>
   </si>
   <si>
-    <t>BA: section &amp; subsection with capital letter</t>
-  </si>
-  <si>
     <t>tfidf on cluster</t>
   </si>
   <si>
@@ -422,13 +419,13 @@
     <t>BA: min. 50, max. 100 pages</t>
   </si>
   <si>
-    <t>BA: omit lists at the end</t>
-  </si>
-  <si>
-    <t>BA: SE template is ok</t>
-  </si>
-  <si>
     <t>TFIDF: custom preprocessing \W for all white spaces</t>
+  </si>
+  <si>
+    <t>19-22.10.23</t>
+  </si>
+  <si>
+    <t>BA: omit lists at the end, BA: SE template is ok, BA: section &amp; subsection with capital letter</t>
   </si>
 </sst>
 </file>
@@ -593,7 +590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -665,9 +662,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1415,7 +1409,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
+      <c r="A42" s="13">
         <v>45189</v>
       </c>
       <c r="B42" s="14" t="s">
@@ -1618,13 +1612,13 @@
     </row>
     <row r="62" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
-        <v>45179</v>
+        <v>45209</v>
       </c>
       <c r="B62" s="14"/>
     </row>
     <row r="63" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
-        <v>45180</v>
+        <v>45210</v>
       </c>
       <c r="B63" s="14" t="s">
         <v>112</v>
@@ -1635,18 +1629,18 @@
     </row>
     <row r="64" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
-        <v>45181</v>
+        <v>45211</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
-        <v>45182</v>
+        <v>45212</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>102</v>
@@ -1654,10 +1648,10 @@
     </row>
     <row r="66" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
-        <v>45183</v>
+        <v>45213</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>103</v>
@@ -1665,10 +1659,10 @@
     </row>
     <row r="67" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
-        <v>45184</v>
+        <v>45214</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>107</v>
@@ -1676,10 +1670,10 @@
     </row>
     <row r="68" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
-        <v>45185</v>
+        <v>45215</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>110</v>
@@ -1687,10 +1681,10 @@
     </row>
     <row r="69" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
-        <v>45186</v>
+        <v>45216</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>106</v>
@@ -1698,68 +1692,59 @@
     </row>
     <row r="70" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="18">
-        <v>45187</v>
+        <v>45217</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D71" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D72" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D73" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D74" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D75" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D77" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D78" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D79" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D80" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D81" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="4:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D82" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0892689-4F58-BF46-A144-534E711D8E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26269B-B715-C640-B45A-9B36966DEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36920" yWindow="1240" windowWidth="34560" windowHeight="20520" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -374,9 +374,6 @@
     <t>FE: Topic2Vec, fix: connect to db on vscode</t>
   </si>
   <si>
-    <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally, universal sentenc on server</t>
-  </si>
-  <si>
     <t>tfidf, pca/clusters on server</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>BA: omit lists at the end, BA: SE template is ok, BA: section &amp; subsection with capital letter</t>
+  </si>
+  <si>
+    <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally, universal sentence on server</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1621,7 @@
         <v>45210</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>104</v>
@@ -1632,7 +1632,7 @@
         <v>45211</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -1640,7 +1640,7 @@
         <v>45212</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>102</v>
@@ -1651,7 +1651,7 @@
         <v>45213</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>103</v>
@@ -1662,7 +1662,7 @@
         <v>45214</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>107</v>
@@ -1673,7 +1673,7 @@
         <v>45215</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>110</v>
@@ -1684,7 +1684,7 @@
         <v>45216</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>106</v>
@@ -1695,56 +1695,56 @@
         <v>45217</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="D71" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D73" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D74" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D75" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D77" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="D78" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D79" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D80" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/organization/BA_tasks.xlsx
+++ b/organization/BA_tasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/klara/Developer/Uni/topic-analysis-text-data/organization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A26269B-B715-C640-B45A-9B36966DEC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E18C4-D5AB-ED47-9A19-76231CA892A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{F95BA5CE-2858-5E49-83EB-51CF4F2E8B01}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="131">
   <si>
     <t>Task</t>
   </si>
@@ -410,9 +410,6 @@
     <t>run BE &amp; FE on server, make SSH Tunnel and use URL locally for UI and db from server</t>
   </si>
   <si>
-    <t>selection of documents: use random choice per directory path</t>
-  </si>
-  <si>
     <t>BA: min. 50, max. 100 pages</t>
   </si>
   <si>
@@ -426,6 +423,12 @@
   </si>
   <si>
     <t>fix TfidfProcessor Preprocessing (punctations into ' '), fix clusters locally, universal sentence on server</t>
+  </si>
+  <si>
+    <t>23.10-02.11.23</t>
+  </si>
+  <si>
+    <t>doc2vec, Infer, TFIDF, USE z.T. auf Server DB, local: &lt;1900 random (from all paths) + 195 old docs, eval: Venn &amp; Heatmap</t>
   </si>
 </sst>
 </file>
@@ -985,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD62869-7C5A-4D40-80FD-07ED57F6AF52}">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1621,7 +1624,7 @@
         <v>45210</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>104</v>
@@ -1695,21 +1698,29 @@
         <v>45217</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+    <row r="71" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="D71" s="8" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1737,14 +1748,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D79" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
     <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="D80" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
